--- a/db/excel/oracle-cdkh-tc-tk-2020-1.1.xlsx
+++ b/db/excel/oracle-cdkh-tc-tk-2020-1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_SERVICE\m-inovation\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6D3782-B6B4-4C3B-8AEA-05AEC58B97DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7657D100-CED4-48B2-8D4F-6C05D6FE6178}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8536,7 +8536,7 @@
   <dimension ref="A1:AMK17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -13290,6 +13290,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100FB0175F18B01E74491971D89B23F8655" ma:contentTypeVersion="11" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="1a9dc9cdd67a308ba2b2666df5490aa6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4c20e182-3cff-46d5-b163-30d344671daf" xmlns:ns4="c86ac200-3bf8-4f3f-9c75-7492a34ff116" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c3aad754d391d83d543dbc23cf02e780" ns3:_="" ns4:_="">
     <xsd:import namespace="4c20e182-3cff-46d5-b163-30d344671daf"/>
@@ -13498,22 +13513,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBEF45AC-2615-4151-BF24-C0F4C0964636}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4c20e182-3cff-46d5-b163-30d344671daf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c86ac200-3bf8-4f3f-9c75-7492a34ff116"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D65A43C4-EEBC-4A64-9E5A-56E808EDB7F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{365A3DC8-8CA9-425E-BFBE-A13D60A0DFFF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13530,29 +13555,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D65A43C4-EEBC-4A64-9E5A-56E808EDB7F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBEF45AC-2615-4151-BF24-C0F4C0964636}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4c20e182-3cff-46d5-b163-30d344671daf"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="c86ac200-3bf8-4f3f-9c75-7492a34ff116"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>